--- a/testExcel/test.xlsx
+++ b/testExcel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="285" yWindow="-285" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
